--- a/Config/Excel/LoginBonus.xlsx
+++ b/Config/Excel/LoginBonus.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0191BC47-DF13-43BA-A3C3-67554EABDC6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB7055BB-1E6E-425F-81ED-5A7B235A0005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{17A7A3E9-78F0-4479-BBD3-723B99F73F99}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="説明" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -84,13 +85,64 @@
   </si>
   <si>
     <t>test102-29</t>
+  </si>
+  <si>
+    <t>ログインボーナス設定ファイルです。</t>
+    <rPh sb="8" eb="10">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>唯一のID</t>
+    <rPh sb="0" eb="2">
+      <t>ユイイツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>何に使うかのボーナス名</t>
+    <rPh sb="0" eb="1">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DB用ID</t>
+    <rPh sb="2" eb="3">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>送るメール（Mail設定ファイルID）</t>
+    <rPh sb="0" eb="1">
+      <t>オク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>送るタイミング</t>
+    <rPh sb="0" eb="1">
+      <t>オク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,21 +158,73 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -129,11 +233,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -471,7 +584,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -658,4 +771,79 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B4C4B8B-5CAB-4834-9FC8-F945C81B6BA3}">
+  <dimension ref="A1:A12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="19.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A5" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A7" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A11" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Config/Excel/LoginBonus.xlsx
+++ b/Config/Excel/LoginBonus.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UnityWork\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB7055BB-1E6E-425F-81ED-5A7B235A0005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93EB6623-968E-4273-AB3C-2A69C44547A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{17A7A3E9-78F0-4479-BBD3-723B99F73F99}"/>
+    <workbookView xWindow="17010" yWindow="150" windowWidth="11580" windowHeight="15090" xr2:uid="{17A7A3E9-78F0-4479-BBD3-723B99F73F99}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="12">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -55,36 +55,6 @@
   <si>
     <t>MailId</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>test100-27</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>test100-28</t>
-  </si>
-  <si>
-    <t>test100-29</t>
-  </si>
-  <si>
-    <t>test101-27</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>test101-28</t>
-  </si>
-  <si>
-    <t>test101-29</t>
-  </si>
-  <si>
-    <t>test102-27</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>test102-28</t>
-  </si>
-  <si>
-    <t>test102-29</t>
   </si>
   <si>
     <t>ログインボーナス設定ファイルです。</t>
@@ -135,6 +105,10 @@
     <rPh sb="0" eb="1">
       <t>オク</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2021Autumn</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -271,8 +245,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{723DAF14-E6FA-43C6-80D6-35AC82370FBE}" name="テーブル1" displayName="テーブル1" ref="A1:E10" totalsRowShown="0">
-  <autoFilter ref="A1:E10" xr:uid="{723DAF14-E6FA-43C6-80D6-35AC82370FBE}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{723DAF14-E6FA-43C6-80D6-35AC82370FBE}" name="テーブル1" displayName="テーブル1" ref="A1:E14" totalsRowShown="0">
+  <autoFilter ref="A1:E14" xr:uid="{723DAF14-E6FA-43C6-80D6-35AC82370FBE}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{DA01C81B-CB57-482F-9A05-BF2FACB823F6}" name="ID"/>
     <tableColumn id="2" xr3:uid="{2053CC2E-F908-416E-BDDB-793EDC7F663C}" name="LoginBonusId"/>
@@ -581,15 +555,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9108D86-2A08-4001-A9F4-53A062FB986B}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -618,13 +592,13 @@
         <v>100</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D2">
         <v>1001</v>
       </c>
       <c r="E2" s="1">
-        <v>44435</v>
+        <v>44457</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
@@ -635,13 +609,13 @@
         <v>100</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D3">
         <v>1002</v>
       </c>
       <c r="E3" s="1">
-        <v>44436</v>
+        <v>44458</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
@@ -652,13 +626,13 @@
         <v>100</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D4">
         <v>1003</v>
       </c>
       <c r="E4" s="1">
-        <v>44437</v>
+        <v>44459</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
@@ -666,16 +640,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D5">
         <v>1004</v>
       </c>
       <c r="E5" s="1">
-        <v>44435</v>
+        <v>44460</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
@@ -683,16 +657,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D6">
         <v>1005</v>
       </c>
       <c r="E6" s="1">
-        <v>44436</v>
+        <v>44461</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
@@ -700,16 +674,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D7">
         <v>1006</v>
       </c>
       <c r="E7" s="1">
-        <v>44437</v>
+        <v>44462</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
@@ -717,7 +691,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
@@ -726,7 +700,7 @@
         <v>1007</v>
       </c>
       <c r="E8" s="1">
-        <v>44466</v>
+        <v>44463</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
@@ -734,16 +708,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D9">
         <v>1008</v>
       </c>
       <c r="E9" s="1">
-        <v>44467</v>
+        <v>44464</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.4">
@@ -751,16 +725,84 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D10">
         <v>1009</v>
       </c>
       <c r="E10" s="1">
+        <v>44465</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>100</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11">
+        <v>1010</v>
+      </c>
+      <c r="E11" s="1">
+        <v>44466</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>100</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <v>1011</v>
+      </c>
+      <c r="E12" s="1">
+        <v>44467</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>100</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13">
+        <v>1012</v>
+      </c>
+      <c r="E13" s="1">
         <v>44468</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>100</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14">
+        <v>1013</v>
+      </c>
+      <c r="E14" s="1">
+        <v>44469</v>
       </c>
     </row>
   </sheetData>
@@ -778,7 +820,7 @@
   <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="B3" sqref="B3:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -788,7 +830,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.4">
@@ -798,7 +840,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.4">
@@ -808,7 +850,7 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.4">
@@ -818,7 +860,7 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.4">
@@ -828,7 +870,7 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.4">
@@ -838,7 +880,7 @@
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
